--- a/data/trans_bre/P24_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>19,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>22,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>193,45%</t>
+          <t>18,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>370,98%</t>
+          <t>433,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>65,36%</t>
+          <t>412,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>44,75%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66,58%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>143,47%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 19,05</t>
+          <t>6,73; 35,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 22,07</t>
+          <t>9,1; 39,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 18,69</t>
+          <t>-8,98; 25,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 12,33</t>
+          <t>-7,31; 21,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 809,37</t>
+          <t>-0,81; 46,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,96; 1534,22</t>
+          <t>6,39; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 273,51</t>
+          <t>49,14; 2095,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 206,52</t>
+          <t>-37,75; 403,22</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-42,76; 771,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-20,3; 1206,71</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>11,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,01%</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,02%</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>194,86%</t>
+          <t>97,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>212,89%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-4,2%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 7,79</t>
+          <t>-1,87; 7,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 11,32</t>
+          <t>-18,13; 10,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 9,13</t>
+          <t>1,78; 16,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 14,41</t>
+          <t>4,58; 18,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 226,62</t>
+          <t>-17,6; 8,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 239,89</t>
+          <t>-33,85; 330,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 114,58</t>
+          <t>-64,92; 150,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>76,75; 434,87</t>
+          <t>8,5; 255,37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42,52; 616,62</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-56,68; 67,63</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>73,12%</t>
+          <t>-4,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>120,79%</t>
+          <t>61,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>762,12%</t>
+          <t>84,6%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>602,47%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>177,44%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 5,57</t>
+          <t>-6,16; 5,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 9,81</t>
+          <t>-2,81; 11,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 13,18</t>
+          <t>-1,37; 12,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,86</t>
+          <t>4,2; 14,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,03; 135,53</t>
+          <t>1,9; 16,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 254,75</t>
+          <t>-63,34; 177,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 327,04</t>
+          <t>-34,62; 289,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>142,76; 3219,66</t>
+          <t>-20,3; 258,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>71,82; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,71; 686,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>187,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 6,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 10,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 9,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 12,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 139,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 204,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,95; 122,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,01; 369,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,74</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,57</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,57</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>75,59%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>59,3%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>79,05%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>202,14%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>42,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 7,78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 10,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 12,69</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,32; 14,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 13,49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 209,61</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-24,42; 173,84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18,67; 172,58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>75,95; 457,22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-23,12; 139,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>19,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>22,19</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,37</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>18,46</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>433,88%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>412,01%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>44,75%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>66,58%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>143,47%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>19.83689476811178</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>22.01676949542142</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.000113575324343</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.143367270530194</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>15.74917324829652</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>4.338842309544455</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>4.299366794311957</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3518415975997972</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4564789152782927</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.246817501879896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,73; 35,11</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,1; 39,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; 25,98</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; 21,8</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 46,5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,39; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>49,14; 2095,51</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-37,75; 403,22</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-42,76; 771,5</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-20,3; 1206,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>6.732431737429155</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>9.308581425524386</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.71987791575914</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-10.10644461706546</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.041936967746588</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.06385143322906647</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.5215089379971101</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4460567413696949</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.5119308323059352</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2622804628198792</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>35.10740047545675</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>39.16139316633401</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>23.51315294556299</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.20743025552062</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>40.86747218641982</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>20.95784880622351</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.635708438280883</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>6.414347694599147</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>10.75893129336413</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,49</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,49</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>64,88%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>17,69%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>97,12%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>212,89%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-4,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 7,95</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-18,13; 10,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,78; 16,99</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,58; 18,52</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-17,6; 8,3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-33,85; 330,66</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-64,92; 150,01</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>8,5; 255,37</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>42,52; 616,62</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-56,68; 67,63</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.174871256077562</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.490430222818337</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.442164220204569</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.76418472967773</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.3946544692622789</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6487650609986684</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2933277056068056</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9475296502695172</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.903366137339963</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.02092171471715701</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,2</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-4,01%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>61,66%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>84,6%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>602,47%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>177,44%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.868757211433463</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.52893309764998</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.59733983485599</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.958285333342775</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-18.69544936092826</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3384661384868906</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6265541995013361</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.05315578956139229</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3213143635251663</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5664950109166899</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 5,7</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 11,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 12,82</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 14,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 16,26</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-63,34; 177,82</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-34,62; 289,7</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-20,3; 258,26</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>71,82; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,71; 686,99</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.951036193421398</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.35403609882681</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.28996188071363</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.70247758166556</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.512190949001337</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.306554292130946</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.755023367170478</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.465690213395417</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>5.842825112361454</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.6805651549748181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +877,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.2525743246607308</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.007011610752935</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.302897644572089</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.641281659099986</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.890474091289048</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.04013277948470061</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.8375090845942069</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.9101964768844985</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>6.468275340057513</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.770347590884845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.161251299388392</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.53416833783448</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.216775927296505</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>4.194137263879877</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1.817018682079816</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6333606939976811</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2522258644008533</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1699826589348007</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.8116960048732406</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.1060301255667901</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.699221857625163</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.64003534438094</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.67240966719959</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.93084953273005</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>15.72226217409882</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.77815576357869</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>3.41178619463222</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.708236355737367</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="n">
+        <v>6.52409086995332</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,62</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,74</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,57</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>75,59%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>59,3%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>79,05%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>202,14%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>42,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 7,78</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 10,97</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 12,69</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 14,16</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 13,49</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 209,61</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-24,42; 173,84</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>18,67; 172,58</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>75,95; 457,22</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-23,12; 139,07</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.06653785595486</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.517094450703699</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.665623494266365</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.993965747667898</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5.122632844447011</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.7559206066780692</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.7512373536714644</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7839306791923067</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.821560789298236</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3930469460586989</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.1087271483677819</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.26149300390898</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.581183943628744</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4.741512337127945</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.822557563810943</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.02562469508429999</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1527282033951144</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.192125654544404</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.6247065192359907</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2631940521985573</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.781847641989424</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.779674130751</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.57865754800709</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.67710617920689</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.74552910294199</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.096073078529744</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.984903031956732</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.71859472957212</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>4.183721322053894</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.293134148656732</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
